--- a/DataStoreApp/Corp+Inc._Liste+de+comptes.xlsx
+++ b/DataStoreApp/Corp+Inc._Liste+de+comptes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="6420"/>
+    <workbookView windowWidth="19890" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de comptes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="264">
   <si>
     <t>Nº de compte</t>
   </si>
@@ -851,13 +851,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -875,13 +868,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,21 +890,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,6 +928,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -964,14 +949,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,6 +976,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1001,7 +1001,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1043,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1085,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,139 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,17 +1223,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1301,151 +1290,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1800,7 +1800,7 @@
     <col min="8" max="8" width="7.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="2:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
